--- a/建水基本信息表.xlsx
+++ b/建水基本信息表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\qc\hqcoffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E35433C7-250C-4568-90FD-526107E0AEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B29D3F3-C7C1-43A3-9638-A88A729282AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7EC7EE59-872B-4801-94B3-51CD7B0748D5}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t>栏次</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>编制床位数</t>
   </si>
@@ -60,10 +57,6 @@
     <t>感染性疾病科医师人数</t>
   </si>
   <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,6 +82,10 @@
   </si>
   <si>
     <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC82274C-38FD-43CE-93C6-7D35785582D1}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -466,77 +463,74 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>500</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
       <c r="C3">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D3">
-        <v>700</v>
+        <v>835</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>835</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>835</v>
       </c>
       <c r="G3">
-        <v>500</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -544,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D4">
-        <v>835</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>835</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>835</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>835</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -567,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -590,45 +584,45 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>359</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>359</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>366</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
       <c r="C7">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D7">
-        <v>359</v>
+        <v>968</v>
       </c>
       <c r="E7">
-        <v>359</v>
+        <v>951</v>
       </c>
       <c r="F7">
-        <v>366</v>
+        <v>923</v>
       </c>
       <c r="G7">
-        <v>373</v>
+        <v>897</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -636,22 +630,22 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D8">
-        <v>968</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>951</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>923</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>897</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -659,49 +653,27 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>157</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>